--- a/Test Documentation/Checklists/Web_app/Checklists for learn.epam.com _STA course.xlsx
+++ b/Test Documentation/Checklists/Web_app/Checklists for learn.epam.com _STA course.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilia\Documents\I-Tester_Portfolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilia\Documents\I-Tester_Portfolio\Portfolio_Tester\Test Documentation\Checklists\Web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B80F42-BD30-435D-95A8-16541EA72C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A918A031-71A3-456D-B8A6-B568EBF51B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-4430" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1081,71 +1081,71 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1564,11 +1564,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:P126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="H28" sqref="H28:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1580,7 +1583,7 @@
     <col min="5" max="5" width="12.77734375" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" style="17" customWidth="1"/>
     <col min="7" max="7" width="18.44140625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="78.33203125" style="28" customWidth="1"/>
+    <col min="8" max="8" width="51.77734375" style="28" customWidth="1"/>
     <col min="9" max="9" width="80.5546875" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9.109375" style="2"/>
   </cols>
@@ -1620,16 +1623,16 @@
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="73" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1643,15 +1646,15 @@
       <c r="A3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -1665,8 +1668,8 @@
       <c r="A4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="70"/>
+      <c r="C4" s="66" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="47" t="s">
@@ -1679,7 +1682,7 @@
       <c r="G4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="71" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1687,8 +1690,8 @@
       <c r="A5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="55"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="48" t="s">
         <v>207</v>
       </c>
@@ -1699,14 +1702,14 @@
       <c r="G5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="59"/>
+      <c r="H5" s="71"/>
     </row>
     <row r="6" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="55"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="20" t="s">
         <v>215</v>
       </c>
@@ -1725,8 +1728,8 @@
       <c r="A7" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="55"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="48" t="s">
         <v>206</v>
       </c>
@@ -1745,8 +1748,8 @@
       <c r="A8" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="55"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="67"/>
       <c r="D8" s="48" t="s">
         <v>201</v>
       </c>
@@ -1757,7 +1760,7 @@
       <c r="G8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="70" t="s">
+      <c r="H8" s="59" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1765,8 +1768,8 @@
       <c r="A9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="55"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="48" t="s">
         <v>202</v>
       </c>
@@ -1777,14 +1780,14 @@
       <c r="G9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="71"/>
+      <c r="H9" s="60"/>
     </row>
     <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="55"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="47" t="s">
         <v>208</v>
       </c>
@@ -1795,7 +1798,7 @@
       <c r="G10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="14" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1803,15 +1806,15 @@
       <c r="A11" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1821,12 +1824,12 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="54" t="s">
+      <c r="B12" s="70"/>
+      <c r="C12" s="66" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="48" t="s">
@@ -1839,16 +1842,16 @@
       <c r="G12" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="59" t="s">
+      <c r="H12" s="71" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="55"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="48" t="s">
         <v>197</v>
       </c>
@@ -1859,14 +1862,14 @@
       <c r="G13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="59"/>
+      <c r="H13" s="71"/>
     </row>
     <row r="14" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="55"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="7" t="s">
         <v>43</v>
       </c>
@@ -1885,8 +1888,8 @@
       <c r="A15" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="55"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="7" t="s">
         <v>45</v>
       </c>
@@ -1905,8 +1908,8 @@
       <c r="A16" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="55"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="48" t="s">
         <v>198</v>
       </c>
@@ -1925,15 +1928,15 @@
       <c r="A17" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1947,8 +1950,8 @@
       <c r="A18" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="54" t="s">
+      <c r="B18" s="75"/>
+      <c r="C18" s="66" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="48" t="s">
@@ -1977,8 +1980,8 @@
       <c r="A19" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="55"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="67"/>
       <c r="D19" s="48" t="s">
         <v>204</v>
       </c>
@@ -1997,8 +2000,8 @@
       <c r="A20" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="55"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="48" t="s">
         <v>195</v>
       </c>
@@ -2017,8 +2020,8 @@
       <c r="A21" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="55"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="48" t="s">
         <v>200</v>
       </c>
@@ -2029,7 +2032,7 @@
       <c r="G21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="72" t="s">
+      <c r="H21" s="61" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2037,8 +2040,8 @@
       <c r="A22" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="55"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="67"/>
       <c r="D22" s="48" t="s">
         <v>199</v>
       </c>
@@ -2049,14 +2052,14 @@
       <c r="G22" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="73"/>
+      <c r="H22" s="62"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="55"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="67"/>
       <c r="D23" s="48" t="s">
         <v>210</v>
       </c>
@@ -2067,7 +2070,7 @@
       <c r="G23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="64" t="s">
+      <c r="H23" s="56" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2075,8 +2078,8 @@
       <c r="A24" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="55"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="48" t="s">
         <v>209</v>
       </c>
@@ -2087,21 +2090,21 @@
       <c r="G24" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="65"/>
+      <c r="H24" s="58"/>
     </row>
     <row r="25" spans="1:16" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -2111,12 +2114,12 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="54" t="s">
+      <c r="B26" s="70"/>
+      <c r="C26" s="66" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -2129,16 +2132,16 @@
       <c r="G26" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="59" t="s">
+      <c r="H26" s="71" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="55"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="48" t="s">
         <v>196</v>
       </c>
@@ -2149,14 +2152,14 @@
       <c r="G27" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="59"/>
+      <c r="H27" s="71"/>
     </row>
     <row r="28" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="7" t="s">
         <v>63</v>
       </c>
@@ -2167,7 +2170,7 @@
       <c r="G28" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="72" t="s">
+      <c r="H28" s="61" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2175,8 +2178,8 @@
       <c r="A29" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="56"/>
-      <c r="C29" s="55"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="67"/>
       <c r="D29" s="7" t="s">
         <v>65</v>
       </c>
@@ -2187,14 +2190,14 @@
       <c r="G29" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="74"/>
+      <c r="H29" s="63"/>
     </row>
     <row r="30" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="55"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="67"/>
       <c r="D30" s="48" t="s">
         <v>67</v>
       </c>
@@ -2205,14 +2208,14 @@
       <c r="G30" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="73"/>
+      <c r="H30" s="62"/>
     </row>
     <row r="31" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="55"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="48" t="s">
         <v>69</v>
       </c>
@@ -2223,7 +2226,7 @@
       <c r="G31" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="64" t="s">
+      <c r="H31" s="56" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2231,8 +2234,8 @@
       <c r="A32" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="55"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="67"/>
       <c r="D32" s="48" t="s">
         <v>188</v>
       </c>
@@ -2243,14 +2246,14 @@
       <c r="G32" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="65"/>
+      <c r="H32" s="58"/>
     </row>
     <row r="33" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="55"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="67"/>
       <c r="D33" s="7" t="s">
         <v>72</v>
       </c>
@@ -2269,8 +2272,8 @@
       <c r="A34" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="55"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="67"/>
       <c r="D34" s="7" t="s">
         <v>75</v>
       </c>
@@ -2289,15 +2292,15 @@
       <c r="A35" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -2311,8 +2314,8 @@
       <c r="A36" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="56"/>
-      <c r="C36" s="54" t="s">
+      <c r="B36" s="70"/>
+      <c r="C36" s="66" t="s">
         <v>20</v>
       </c>
       <c r="D36" s="47" t="s">
@@ -2325,7 +2328,7 @@
       <c r="G36" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="59" t="s">
+      <c r="H36" s="71" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2333,8 +2336,8 @@
       <c r="A37" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="55"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="67"/>
       <c r="D37" s="47" t="s">
         <v>81</v>
       </c>
@@ -2345,14 +2348,14 @@
       <c r="G37" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="59"/>
+      <c r="H37" s="71"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="56"/>
-      <c r="C38" s="55"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="67"/>
       <c r="D38" s="47" t="s">
         <v>83</v>
       </c>
@@ -2363,21 +2366,21 @@
       <c r="G38" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H38" s="59"/>
+      <c r="H38" s="71"/>
     </row>
     <row r="39" spans="1:16" s="9" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -2391,8 +2394,8 @@
       <c r="A40" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="56"/>
-      <c r="C40" s="54" t="s">
+      <c r="B40" s="70"/>
+      <c r="C40" s="66" t="s">
         <v>20</v>
       </c>
       <c r="D40" s="47" t="s">
@@ -2413,8 +2416,8 @@
       <c r="A41" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="56"/>
-      <c r="C41" s="55"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="67"/>
       <c r="D41" s="47" t="s">
         <v>89</v>
       </c>
@@ -2425,7 +2428,7 @@
       <c r="G41" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H41" s="64" t="s">
+      <c r="H41" s="56" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2433,8 +2436,8 @@
       <c r="A42" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="56"/>
-      <c r="C42" s="55"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="67"/>
       <c r="D42" s="47" t="s">
         <v>91</v>
       </c>
@@ -2445,14 +2448,14 @@
       <c r="G42" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="65"/>
+      <c r="H42" s="58"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="56"/>
-      <c r="C43" s="55"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="67"/>
       <c r="D43" s="47" t="s">
         <v>189</v>
       </c>
@@ -2463,7 +2466,7 @@
       <c r="G43" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="64" t="s">
+      <c r="H43" s="56" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2471,8 +2474,8 @@
       <c r="A44" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="56"/>
-      <c r="C44" s="55"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="67"/>
       <c r="D44" s="47" t="s">
         <v>190</v>
       </c>
@@ -2483,14 +2486,14 @@
       <c r="G44" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H44" s="69"/>
+      <c r="H44" s="57"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="56"/>
-      <c r="C45" s="55"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="67"/>
       <c r="D45" s="47" t="s">
         <v>191</v>
       </c>
@@ -2501,14 +2504,14 @@
       <c r="G45" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="69"/>
+      <c r="H45" s="57"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="56"/>
-      <c r="C46" s="55"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="67"/>
       <c r="D46" s="47" t="s">
         <v>192</v>
       </c>
@@ -2519,14 +2522,14 @@
       <c r="G46" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H46" s="69"/>
+      <c r="H46" s="57"/>
     </row>
     <row r="47" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="56"/>
-      <c r="C47" s="55"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="67"/>
       <c r="D47" s="47" t="s">
         <v>97</v>
       </c>
@@ -2537,21 +2540,21 @@
       <c r="G47" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H47" s="65"/>
+      <c r="H47" s="58"/>
     </row>
     <row r="48" spans="1:16" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
@@ -2565,8 +2568,8 @@
       <c r="A49" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="56"/>
-      <c r="C49" s="54" t="s">
+      <c r="B49" s="70"/>
+      <c r="C49" s="66" t="s">
         <v>20</v>
       </c>
       <c r="D49" s="48" t="s">
@@ -2579,7 +2582,7 @@
       <c r="G49" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H49" s="64" t="s">
+      <c r="H49" s="56" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2587,8 +2590,8 @@
       <c r="A50" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="56"/>
-      <c r="C50" s="55"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="67"/>
       <c r="D50" s="48" t="s">
         <v>194</v>
       </c>
@@ -2599,14 +2602,14 @@
       <c r="G50" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H50" s="65"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="56"/>
-      <c r="C51" s="55"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="67"/>
       <c r="D51" s="7" t="s">
         <v>103</v>
       </c>
@@ -2617,7 +2620,7 @@
       <c r="G51" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H51" s="70" t="s">
+      <c r="H51" s="59" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2625,8 +2628,8 @@
       <c r="A52" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="56"/>
-      <c r="C52" s="55"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="67"/>
       <c r="D52" s="7" t="s">
         <v>105</v>
       </c>
@@ -2637,21 +2640,21 @@
       <c r="G52" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H52" s="71"/>
+      <c r="H52" s="60"/>
     </row>
     <row r="53" spans="1:16" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="57" t="s">
+      <c r="B53" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="58"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -2665,8 +2668,8 @@
       <c r="A54" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="56"/>
-      <c r="C54" s="54" t="s">
+      <c r="B54" s="70"/>
+      <c r="C54" s="66" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="7" t="s">
@@ -2679,7 +2682,7 @@
       <c r="G54" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H54" s="70" t="s">
+      <c r="H54" s="59" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2687,8 +2690,8 @@
       <c r="A55" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="56"/>
-      <c r="C55" s="55"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="67"/>
       <c r="D55" s="7" t="s">
         <v>111</v>
       </c>
@@ -2699,14 +2702,14 @@
       <c r="G55" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H55" s="75"/>
+      <c r="H55" s="64"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="56"/>
-      <c r="C56" s="55"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="67"/>
       <c r="D56" s="7" t="s">
         <v>113</v>
       </c>
@@ -2717,21 +2720,21 @@
       <c r="G56" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H56" s="71"/>
+      <c r="H56" s="60"/>
     </row>
     <row r="57" spans="1:16" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="58" t="s">
+      <c r="B57" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="58"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -2745,8 +2748,8 @@
       <c r="A58" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="56"/>
-      <c r="C58" s="54" t="s">
+      <c r="B58" s="70"/>
+      <c r="C58" s="66" t="s">
         <v>20</v>
       </c>
       <c r="D58" s="48" t="s">
@@ -2759,7 +2762,7 @@
       <c r="G58" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H58" s="59" t="s">
+      <c r="H58" s="71" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2767,8 +2770,8 @@
       <c r="A59" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="56"/>
-      <c r="C59" s="55"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="67"/>
       <c r="D59" s="7" t="s">
         <v>118</v>
       </c>
@@ -2779,14 +2782,14 @@
       <c r="G59" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H59" s="62"/>
+      <c r="H59" s="72"/>
     </row>
     <row r="60" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="56"/>
-      <c r="C60" s="55"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="67"/>
       <c r="D60" s="7" t="s">
         <v>120</v>
       </c>
@@ -2797,14 +2800,14 @@
       <c r="G60" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H60" s="62"/>
+      <c r="H60" s="72"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="56"/>
-      <c r="C61" s="55"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="67"/>
       <c r="D61" s="48" t="s">
         <v>178</v>
       </c>
@@ -2815,19 +2818,19 @@
       <c r="G61" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H61" s="62"/>
+      <c r="H61" s="72"/>
     </row>
     <row r="62" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="61" t="s">
+      <c r="A62" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="B62" s="61"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="61"/>
-      <c r="H62" s="61"/>
+      <c r="B62" s="73"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="73"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
@@ -2841,15 +2844,15 @@
       <c r="A63" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="58" t="s">
+      <c r="B63" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="58"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="55"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
@@ -2860,11 +2863,11 @@
       <c r="P63" s="2"/>
     </row>
     <row r="64" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="66" t="s">
+      <c r="A64" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="B64" s="67"/>
-      <c r="C64" s="54" t="s">
+      <c r="B64" s="69"/>
+      <c r="C64" s="66" t="s">
         <v>20</v>
       </c>
       <c r="D64" s="49" t="s">
@@ -2877,14 +2880,14 @@
       <c r="G64" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H64" s="70" t="s">
+      <c r="H64" s="59" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="66"/>
-      <c r="B65" s="67"/>
-      <c r="C65" s="55"/>
+      <c r="A65" s="68"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="67"/>
       <c r="D65" s="14" t="s">
         <v>126</v>
       </c>
@@ -2895,12 +2898,12 @@
       <c r="G65" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H65" s="75"/>
+      <c r="H65" s="64"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="66"/>
-      <c r="B66" s="67"/>
-      <c r="C66" s="55"/>
+      <c r="A66" s="68"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="67"/>
       <c r="D66" s="49" t="s">
         <v>185</v>
       </c>
@@ -2911,28 +2914,28 @@
       <c r="G66" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H66" s="71"/>
+      <c r="H66" s="60"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="B67" s="58" t="s">
+      <c r="B67" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="58"/>
-      <c r="H67" s="58"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="55"/>
     </row>
     <row r="68" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="B68" s="56"/>
-      <c r="C68" s="54" t="s">
+      <c r="B68" s="70"/>
+      <c r="C68" s="66" t="s">
         <v>20</v>
       </c>
       <c r="D68" s="48" t="s">
@@ -2945,7 +2948,7 @@
       <c r="G68" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H68" s="64" t="s">
+      <c r="H68" s="56" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2953,8 +2956,8 @@
       <c r="A69" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B69" s="56"/>
-      <c r="C69" s="55"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="67"/>
       <c r="D69" s="7" t="s">
         <v>132</v>
       </c>
@@ -2965,28 +2968,28 @@
       <c r="G69" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H69" s="65"/>
+      <c r="H69" s="58"/>
     </row>
     <row r="70" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="B70" s="58" t="s">
+      <c r="B70" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="58"/>
-      <c r="D70" s="58"/>
-      <c r="E70" s="58"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="58"/>
-      <c r="H70" s="58"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="55"/>
+      <c r="H70" s="55"/>
     </row>
     <row r="71" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="B71" s="56"/>
-      <c r="C71" s="54" t="s">
+      <c r="B71" s="70"/>
+      <c r="C71" s="66" t="s">
         <v>20</v>
       </c>
       <c r="D71" s="7" t="s">
@@ -2999,7 +3002,7 @@
       <c r="G71" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H71" s="59" t="s">
+      <c r="H71" s="71" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3007,8 +3010,8 @@
       <c r="A72" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="B72" s="56"/>
-      <c r="C72" s="55"/>
+      <c r="B72" s="70"/>
+      <c r="C72" s="67"/>
       <c r="D72" s="7" t="s">
         <v>139</v>
       </c>
@@ -3019,14 +3022,14 @@
       <c r="G72" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H72" s="59"/>
+      <c r="H72" s="71"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B73" s="56"/>
-      <c r="C73" s="55"/>
+      <c r="B73" s="70"/>
+      <c r="C73" s="67"/>
       <c r="D73" s="7" t="s">
         <v>141</v>
       </c>
@@ -3037,14 +3040,14 @@
       <c r="G73" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H73" s="59"/>
+      <c r="H73" s="71"/>
     </row>
     <row r="74" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="B74" s="56"/>
-      <c r="C74" s="55"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="67"/>
       <c r="D74" s="7" t="s">
         <v>143</v>
       </c>
@@ -3055,28 +3058,28 @@
       <c r="G74" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H74" s="59"/>
+      <c r="H74" s="71"/>
     </row>
     <row r="75" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B75" s="58" t="s">
+      <c r="B75" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="C75" s="58"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="58"/>
-      <c r="H75" s="58"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="55"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="55"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B76" s="67"/>
-      <c r="C76" s="54" t="s">
+      <c r="B76" s="69"/>
+      <c r="C76" s="66" t="s">
         <v>20</v>
       </c>
       <c r="D76" s="48" t="s">
@@ -3089,7 +3092,7 @@
       <c r="G76" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H76" s="64" t="s">
+      <c r="H76" s="56" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3097,8 +3100,8 @@
       <c r="A77" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="B77" s="67"/>
-      <c r="C77" s="55"/>
+      <c r="B77" s="69"/>
+      <c r="C77" s="67"/>
       <c r="D77" s="48" t="s">
         <v>182</v>
       </c>
@@ -3109,14 +3112,14 @@
       <c r="G77" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H77" s="69"/>
+      <c r="H77" s="57"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="B78" s="67"/>
-      <c r="C78" s="55"/>
+      <c r="B78" s="69"/>
+      <c r="C78" s="67"/>
       <c r="D78" s="7" t="s">
         <v>150</v>
       </c>
@@ -3127,14 +3130,14 @@
       <c r="G78" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H78" s="69"/>
+      <c r="H78" s="57"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="B79" s="67"/>
-      <c r="C79" s="55"/>
+      <c r="B79" s="69"/>
+      <c r="C79" s="67"/>
       <c r="D79" s="7" t="s">
         <v>152</v>
       </c>
@@ -3145,14 +3148,14 @@
       <c r="G79" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H79" s="65"/>
+      <c r="H79" s="58"/>
     </row>
     <row r="80" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="B80" s="67"/>
-      <c r="C80" s="55"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="67"/>
       <c r="D80" s="7" t="s">
         <v>154</v>
       </c>
@@ -3172,25 +3175,25 @@
       <c r="A81" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="B81" s="58" t="s">
+      <c r="B81" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="C81" s="58"/>
-      <c r="D81" s="58"/>
-      <c r="E81" s="58"/>
-      <c r="F81" s="58"/>
-      <c r="G81" s="58"/>
-      <c r="H81" s="58"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="55"/>
+      <c r="H81" s="55"/>
       <c r="I81" s="52"/>
     </row>
     <row r="82" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="B82" s="67" t="s">
+      <c r="B82" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="C82" s="54" t="s">
+      <c r="C82" s="66" t="s">
         <v>20</v>
       </c>
       <c r="D82" s="48" t="s">
@@ -3203,7 +3206,7 @@
       <c r="G82" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H82" s="70" t="s">
+      <c r="H82" s="59" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3211,8 +3214,8 @@
       <c r="A83" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="B83" s="67"/>
-      <c r="C83" s="55"/>
+      <c r="B83" s="69"/>
+      <c r="C83" s="67"/>
       <c r="D83" s="7" t="s">
         <v>161</v>
       </c>
@@ -3221,29 +3224,29 @@
       <c r="G83" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H83" s="71"/>
+      <c r="H83" s="60"/>
       <c r="I83" s="11"/>
     </row>
     <row r="84" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="B84" s="58" t="s">
+      <c r="B84" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="C84" s="58"/>
-      <c r="D84" s="58"/>
-      <c r="E84" s="58"/>
-      <c r="F84" s="58"/>
-      <c r="G84" s="58"/>
-      <c r="H84" s="58"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="55"/>
+      <c r="G84" s="55"/>
+      <c r="H84" s="55"/>
     </row>
     <row r="85" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="B85" s="63"/>
-      <c r="C85" s="54" t="s">
+      <c r="B85" s="65"/>
+      <c r="C85" s="66" t="s">
         <v>20</v>
       </c>
       <c r="D85" s="48" t="s">
@@ -3256,7 +3259,7 @@
       <c r="G85" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H85" s="64" t="s">
+      <c r="H85" s="56" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3264,8 +3267,8 @@
       <c r="A86" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="B86" s="63"/>
-      <c r="C86" s="55"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="67"/>
       <c r="D86" s="48" t="s">
         <v>181</v>
       </c>
@@ -3276,21 +3279,21 @@
       <c r="G86" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H86" s="65"/>
+      <c r="H86" s="58"/>
     </row>
     <row r="87" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="B87" s="58" t="s">
+      <c r="B87" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="C87" s="58"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="58"/>
-      <c r="F87" s="58"/>
-      <c r="G87" s="58"/>
-      <c r="H87" s="58"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="55"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="55"/>
+      <c r="H87" s="55"/>
     </row>
     <row r="88" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A88" s="25" t="s">
@@ -3320,15 +3323,15 @@
       <c r="A89" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="B89" s="58" t="s">
+      <c r="B89" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="C89" s="58"/>
-      <c r="D89" s="58"/>
-      <c r="E89" s="58"/>
-      <c r="F89" s="58"/>
-      <c r="G89" s="58"/>
-      <c r="H89" s="58"/>
+      <c r="C89" s="55"/>
+      <c r="D89" s="55"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="55"/>
+      <c r="G89" s="55"/>
+      <c r="H89" s="55"/>
     </row>
     <row r="90" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="25" t="s">
@@ -3357,11 +3360,11 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="32"/>
-      <c r="F92" s="68" t="s">
+      <c r="F92" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="G92" s="68"/>
-      <c r="H92" s="68"/>
+      <c r="G92" s="54"/>
+      <c r="H92" s="54"/>
     </row>
     <row r="93" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="32"/>
@@ -3490,6 +3493,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C40:C47"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="H71:H74"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="C26:C34"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="B87:H87"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B81:H81"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="C68:C69"/>
     <mergeCell ref="F92:H92"/>
     <mergeCell ref="B89:H89"/>
     <mergeCell ref="H43:H47"/>
@@ -3506,63 +3565,8 @@
     <mergeCell ref="H68:H69"/>
     <mergeCell ref="H76:H79"/>
     <mergeCell ref="H82:H83"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="B87:H87"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B81:H81"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="H71:H74"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="C26:C34"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C40:C47"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="B40:B47"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B26:B34"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B18:B24"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="3.937007874015748E-2" footer="3.937007874015748E-2"/>
+  <pageSetup paperSize="8" scale="98" fitToHeight="10" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Documentation/Checklists/Web_app/Checklists for learn.epam.com _STA course.xlsx
+++ b/Test Documentation/Checklists/Web_app/Checklists for learn.epam.com _STA course.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilia\Documents\I-Tester_Portfolio\Portfolio_Tester\Test Documentation\Checklists\Web_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilia\Documents\I-Tester_Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A918A031-71A3-456D-B8A6-B568EBF51B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B80F42-BD30-435D-95A8-16541EA72C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-4430" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1081,21 +1081,54 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1113,39 +1146,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1564,14 +1564,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:P126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H28" sqref="H28:H30"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1583,7 +1580,7 @@
     <col min="5" max="5" width="12.77734375" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" style="17" customWidth="1"/>
     <col min="7" max="7" width="18.44140625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="51.77734375" style="28" customWidth="1"/>
+    <col min="8" max="8" width="78.33203125" style="28" customWidth="1"/>
     <col min="9" max="9" width="80.5546875" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9.109375" style="2"/>
   </cols>
@@ -1623,16 +1620,16 @@
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1646,15 +1643,15 @@
       <c r="A3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -1668,8 +1665,8 @@
       <c r="A4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="66" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="54" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="47" t="s">
@@ -1682,7 +1679,7 @@
       <c r="G4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="71" t="s">
+      <c r="H4" s="59" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1690,8 +1687,8 @@
       <c r="A5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="67"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="48" t="s">
         <v>207</v>
       </c>
@@ -1702,14 +1699,14 @@
       <c r="G5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="71"/>
+      <c r="H5" s="59"/>
     </row>
     <row r="6" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="67"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="20" t="s">
         <v>215</v>
       </c>
@@ -1728,8 +1725,8 @@
       <c r="A7" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="67"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="48" t="s">
         <v>206</v>
       </c>
@@ -1748,8 +1745,8 @@
       <c r="A8" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="67"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="48" t="s">
         <v>201</v>
       </c>
@@ -1760,7 +1757,7 @@
       <c r="G8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="59" t="s">
+      <c r="H8" s="70" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1768,8 +1765,8 @@
       <c r="A9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="67"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="48" t="s">
         <v>202</v>
       </c>
@@ -1780,14 +1777,14 @@
       <c r="G9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="60"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="67"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="47" t="s">
         <v>208</v>
       </c>
@@ -1798,7 +1795,7 @@
       <c r="G10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="26" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1806,15 +1803,15 @@
       <c r="A11" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1824,12 +1821,12 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="66" t="s">
+      <c r="B12" s="56"/>
+      <c r="C12" s="54" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="48" t="s">
@@ -1842,16 +1839,16 @@
       <c r="G12" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="71" t="s">
+      <c r="H12" s="59" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="67"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="48" t="s">
         <v>197</v>
       </c>
@@ -1862,14 +1859,14 @@
       <c r="G13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="71"/>
+      <c r="H13" s="59"/>
     </row>
     <row r="14" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="67"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="7" t="s">
         <v>43</v>
       </c>
@@ -1888,8 +1885,8 @@
       <c r="A15" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="67"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="7" t="s">
         <v>45</v>
       </c>
@@ -1908,8 +1905,8 @@
       <c r="A16" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="67"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="48" t="s">
         <v>198</v>
       </c>
@@ -1928,15 +1925,15 @@
       <c r="A17" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1950,8 +1947,8 @@
       <c r="A18" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="66" t="s">
+      <c r="B18" s="60"/>
+      <c r="C18" s="54" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="48" t="s">
@@ -1980,8 +1977,8 @@
       <c r="A19" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="75"/>
-      <c r="C19" s="67"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="48" t="s">
         <v>204</v>
       </c>
@@ -2000,8 +1997,8 @@
       <c r="A20" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="67"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="48" t="s">
         <v>195</v>
       </c>
@@ -2020,8 +2017,8 @@
       <c r="A21" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="67"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="48" t="s">
         <v>200</v>
       </c>
@@ -2032,7 +2029,7 @@
       <c r="G21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="61" t="s">
+      <c r="H21" s="72" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2040,8 +2037,8 @@
       <c r="A22" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="67"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="48" t="s">
         <v>199</v>
       </c>
@@ -2052,14 +2049,14 @@
       <c r="G22" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="62"/>
+      <c r="H22" s="73"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="67"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="55"/>
       <c r="D23" s="48" t="s">
         <v>210</v>
       </c>
@@ -2070,7 +2067,7 @@
       <c r="G23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="56" t="s">
+      <c r="H23" s="64" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2078,8 +2075,8 @@
       <c r="A24" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="75"/>
-      <c r="C24" s="67"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="48" t="s">
         <v>209</v>
       </c>
@@ -2090,21 +2087,21 @@
       <c r="G24" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="58"/>
+      <c r="H24" s="65"/>
     </row>
     <row r="25" spans="1:16" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -2114,12 +2111,12 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="66" t="s">
+      <c r="B26" s="56"/>
+      <c r="C26" s="54" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -2132,16 +2129,16 @@
       <c r="G26" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="71" t="s">
+      <c r="H26" s="59" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="67"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="48" t="s">
         <v>196</v>
       </c>
@@ -2152,14 +2149,14 @@
       <c r="G27" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="71"/>
+      <c r="H27" s="59"/>
     </row>
     <row r="28" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="67"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="55"/>
       <c r="D28" s="7" t="s">
         <v>63</v>
       </c>
@@ -2170,7 +2167,7 @@
       <c r="G28" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="61" t="s">
+      <c r="H28" s="72" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2178,8 +2175,8 @@
       <c r="A29" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="70"/>
-      <c r="C29" s="67"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="55"/>
       <c r="D29" s="7" t="s">
         <v>65</v>
       </c>
@@ -2190,14 +2187,14 @@
       <c r="G29" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="63"/>
+      <c r="H29" s="74"/>
     </row>
     <row r="30" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="70"/>
-      <c r="C30" s="67"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="55"/>
       <c r="D30" s="48" t="s">
         <v>67</v>
       </c>
@@ -2208,14 +2205,14 @@
       <c r="G30" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="62"/>
+      <c r="H30" s="73"/>
     </row>
     <row r="31" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="70"/>
-      <c r="C31" s="67"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="55"/>
       <c r="D31" s="48" t="s">
         <v>69</v>
       </c>
@@ -2226,7 +2223,7 @@
       <c r="G31" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="56" t="s">
+      <c r="H31" s="64" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2234,8 +2231,8 @@
       <c r="A32" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="70"/>
-      <c r="C32" s="67"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="55"/>
       <c r="D32" s="48" t="s">
         <v>188</v>
       </c>
@@ -2246,14 +2243,14 @@
       <c r="G32" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="58"/>
+      <c r="H32" s="65"/>
     </row>
     <row r="33" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="70"/>
-      <c r="C33" s="67"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="55"/>
       <c r="D33" s="7" t="s">
         <v>72</v>
       </c>
@@ -2272,8 +2269,8 @@
       <c r="A34" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="70"/>
-      <c r="C34" s="67"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="55"/>
       <c r="D34" s="7" t="s">
         <v>75</v>
       </c>
@@ -2292,15 +2289,15 @@
       <c r="A35" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -2314,8 +2311,8 @@
       <c r="A36" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="70"/>
-      <c r="C36" s="66" t="s">
+      <c r="B36" s="56"/>
+      <c r="C36" s="54" t="s">
         <v>20</v>
       </c>
       <c r="D36" s="47" t="s">
@@ -2328,7 +2325,7 @@
       <c r="G36" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="71" t="s">
+      <c r="H36" s="59" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2336,8 +2333,8 @@
       <c r="A37" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="67"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="55"/>
       <c r="D37" s="47" t="s">
         <v>81</v>
       </c>
@@ -2348,14 +2345,14 @@
       <c r="G37" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="71"/>
+      <c r="H37" s="59"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="70"/>
-      <c r="C38" s="67"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="55"/>
       <c r="D38" s="47" t="s">
         <v>83</v>
       </c>
@@ -2366,21 +2363,21 @@
       <c r="G38" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H38" s="71"/>
+      <c r="H38" s="59"/>
     </row>
     <row r="39" spans="1:16" s="9" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -2394,8 +2391,8 @@
       <c r="A40" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="70"/>
-      <c r="C40" s="66" t="s">
+      <c r="B40" s="56"/>
+      <c r="C40" s="54" t="s">
         <v>20</v>
       </c>
       <c r="D40" s="47" t="s">
@@ -2416,8 +2413,8 @@
       <c r="A41" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="70"/>
-      <c r="C41" s="67"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="55"/>
       <c r="D41" s="47" t="s">
         <v>89</v>
       </c>
@@ -2428,7 +2425,7 @@
       <c r="G41" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H41" s="56" t="s">
+      <c r="H41" s="64" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2436,8 +2433,8 @@
       <c r="A42" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="70"/>
-      <c r="C42" s="67"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="55"/>
       <c r="D42" s="47" t="s">
         <v>91</v>
       </c>
@@ -2448,14 +2445,14 @@
       <c r="G42" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="58"/>
+      <c r="H42" s="65"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="70"/>
-      <c r="C43" s="67"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="55"/>
       <c r="D43" s="47" t="s">
         <v>189</v>
       </c>
@@ -2466,7 +2463,7 @@
       <c r="G43" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="56" t="s">
+      <c r="H43" s="64" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2474,8 +2471,8 @@
       <c r="A44" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="70"/>
-      <c r="C44" s="67"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="55"/>
       <c r="D44" s="47" t="s">
         <v>190</v>
       </c>
@@ -2486,14 +2483,14 @@
       <c r="G44" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H44" s="57"/>
+      <c r="H44" s="69"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="70"/>
-      <c r="C45" s="67"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="55"/>
       <c r="D45" s="47" t="s">
         <v>191</v>
       </c>
@@ -2504,14 +2501,14 @@
       <c r="G45" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="57"/>
+      <c r="H45" s="69"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="70"/>
-      <c r="C46" s="67"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="55"/>
       <c r="D46" s="47" t="s">
         <v>192</v>
       </c>
@@ -2522,14 +2519,14 @@
       <c r="G46" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H46" s="57"/>
+      <c r="H46" s="69"/>
     </row>
     <row r="47" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="70"/>
-      <c r="C47" s="67"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="55"/>
       <c r="D47" s="47" t="s">
         <v>97</v>
       </c>
@@ -2540,21 +2537,21 @@
       <c r="G47" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H47" s="58"/>
+      <c r="H47" s="65"/>
     </row>
     <row r="48" spans="1:16" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
@@ -2568,8 +2565,8 @@
       <c r="A49" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="70"/>
-      <c r="C49" s="66" t="s">
+      <c r="B49" s="56"/>
+      <c r="C49" s="54" t="s">
         <v>20</v>
       </c>
       <c r="D49" s="48" t="s">
@@ -2582,7 +2579,7 @@
       <c r="G49" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H49" s="56" t="s">
+      <c r="H49" s="64" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2590,8 +2587,8 @@
       <c r="A50" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="70"/>
-      <c r="C50" s="67"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="55"/>
       <c r="D50" s="48" t="s">
         <v>194</v>
       </c>
@@ -2602,14 +2599,14 @@
       <c r="G50" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H50" s="58"/>
+      <c r="H50" s="65"/>
     </row>
     <row r="51" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="70"/>
-      <c r="C51" s="67"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="55"/>
       <c r="D51" s="7" t="s">
         <v>103</v>
       </c>
@@ -2620,7 +2617,7 @@
       <c r="G51" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H51" s="59" t="s">
+      <c r="H51" s="70" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2628,8 +2625,8 @@
       <c r="A52" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="70"/>
-      <c r="C52" s="67"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="55"/>
       <c r="D52" s="7" t="s">
         <v>105</v>
       </c>
@@ -2640,21 +2637,21 @@
       <c r="G52" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H52" s="60"/>
+      <c r="H52" s="71"/>
     </row>
     <row r="53" spans="1:16" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="74" t="s">
+      <c r="B53" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="55"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="55"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="58"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -2668,8 +2665,8 @@
       <c r="A54" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="70"/>
-      <c r="C54" s="66" t="s">
+      <c r="B54" s="56"/>
+      <c r="C54" s="54" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="7" t="s">
@@ -2682,7 +2679,7 @@
       <c r="G54" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H54" s="59" t="s">
+      <c r="H54" s="70" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2690,8 +2687,8 @@
       <c r="A55" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="70"/>
-      <c r="C55" s="67"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="55"/>
       <c r="D55" s="7" t="s">
         <v>111</v>
       </c>
@@ -2702,14 +2699,14 @@
       <c r="G55" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H55" s="64"/>
+      <c r="H55" s="75"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="70"/>
-      <c r="C56" s="67"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="55"/>
       <c r="D56" s="7" t="s">
         <v>113</v>
       </c>
@@ -2720,21 +2717,21 @@
       <c r="G56" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H56" s="60"/>
+      <c r="H56" s="71"/>
     </row>
     <row r="57" spans="1:16" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="55" t="s">
+      <c r="B57" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="58"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -2748,8 +2745,8 @@
       <c r="A58" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="70"/>
-      <c r="C58" s="66" t="s">
+      <c r="B58" s="56"/>
+      <c r="C58" s="54" t="s">
         <v>20</v>
       </c>
       <c r="D58" s="48" t="s">
@@ -2762,7 +2759,7 @@
       <c r="G58" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H58" s="71" t="s">
+      <c r="H58" s="59" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2770,8 +2767,8 @@
       <c r="A59" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="70"/>
-      <c r="C59" s="67"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="55"/>
       <c r="D59" s="7" t="s">
         <v>118</v>
       </c>
@@ -2782,14 +2779,14 @@
       <c r="G59" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H59" s="72"/>
+      <c r="H59" s="62"/>
     </row>
     <row r="60" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="70"/>
-      <c r="C60" s="67"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="55"/>
       <c r="D60" s="7" t="s">
         <v>120</v>
       </c>
@@ -2800,14 +2797,14 @@
       <c r="G60" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H60" s="72"/>
+      <c r="H60" s="62"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="70"/>
-      <c r="C61" s="67"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="55"/>
       <c r="D61" s="48" t="s">
         <v>178</v>
       </c>
@@ -2818,19 +2815,19 @@
       <c r="G61" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H61" s="72"/>
+      <c r="H61" s="62"/>
     </row>
     <row r="62" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="73" t="s">
+      <c r="A62" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="B62" s="73"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="73"/>
-      <c r="E62" s="73"/>
-      <c r="F62" s="73"/>
-      <c r="G62" s="73"/>
-      <c r="H62" s="73"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="61"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
@@ -2844,15 +2841,15 @@
       <c r="A63" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="55" t="s">
+      <c r="B63" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="C63" s="55"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="55"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
@@ -2863,11 +2860,11 @@
       <c r="P63" s="2"/>
     </row>
     <row r="64" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="68" t="s">
+      <c r="A64" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="B64" s="69"/>
-      <c r="C64" s="66" t="s">
+      <c r="B64" s="67"/>
+      <c r="C64" s="54" t="s">
         <v>20</v>
       </c>
       <c r="D64" s="49" t="s">
@@ -2880,14 +2877,14 @@
       <c r="G64" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H64" s="59" t="s">
+      <c r="H64" s="70" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="68"/>
-      <c r="B65" s="69"/>
-      <c r="C65" s="67"/>
+      <c r="A65" s="66"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="55"/>
       <c r="D65" s="14" t="s">
         <v>126</v>
       </c>
@@ -2898,12 +2895,12 @@
       <c r="G65" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H65" s="64"/>
+      <c r="H65" s="75"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="68"/>
-      <c r="B66" s="69"/>
-      <c r="C66" s="67"/>
+      <c r="A66" s="66"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="55"/>
       <c r="D66" s="49" t="s">
         <v>185</v>
       </c>
@@ -2914,28 +2911,28 @@
       <c r="G66" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H66" s="60"/>
+      <c r="H66" s="71"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="B67" s="55" t="s">
+      <c r="B67" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="C67" s="55"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="55"/>
-      <c r="G67" s="55"/>
-      <c r="H67" s="55"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="58"/>
     </row>
     <row r="68" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="B68" s="70"/>
-      <c r="C68" s="66" t="s">
+      <c r="B68" s="56"/>
+      <c r="C68" s="54" t="s">
         <v>20</v>
       </c>
       <c r="D68" s="48" t="s">
@@ -2948,7 +2945,7 @@
       <c r="G68" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H68" s="56" t="s">
+      <c r="H68" s="64" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2956,8 +2953,8 @@
       <c r="A69" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B69" s="70"/>
-      <c r="C69" s="67"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="55"/>
       <c r="D69" s="7" t="s">
         <v>132</v>
       </c>
@@ -2968,28 +2965,28 @@
       <c r="G69" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H69" s="58"/>
+      <c r="H69" s="65"/>
     </row>
     <row r="70" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="B70" s="55" t="s">
+      <c r="B70" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="55"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="55"/>
-      <c r="H70" s="55"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="58"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="58"/>
+      <c r="G70" s="58"/>
+      <c r="H70" s="58"/>
     </row>
     <row r="71" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="B71" s="70"/>
-      <c r="C71" s="66" t="s">
+      <c r="B71" s="56"/>
+      <c r="C71" s="54" t="s">
         <v>20</v>
       </c>
       <c r="D71" s="7" t="s">
@@ -3002,7 +2999,7 @@
       <c r="G71" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H71" s="71" t="s">
+      <c r="H71" s="59" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3010,8 +3007,8 @@
       <c r="A72" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="B72" s="70"/>
-      <c r="C72" s="67"/>
+      <c r="B72" s="56"/>
+      <c r="C72" s="55"/>
       <c r="D72" s="7" t="s">
         <v>139</v>
       </c>
@@ -3022,14 +3019,14 @@
       <c r="G72" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H72" s="71"/>
+      <c r="H72" s="59"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B73" s="70"/>
-      <c r="C73" s="67"/>
+      <c r="B73" s="56"/>
+      <c r="C73" s="55"/>
       <c r="D73" s="7" t="s">
         <v>141</v>
       </c>
@@ -3040,14 +3037,14 @@
       <c r="G73" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H73" s="71"/>
+      <c r="H73" s="59"/>
     </row>
     <row r="74" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="B74" s="70"/>
-      <c r="C74" s="67"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="55"/>
       <c r="D74" s="7" t="s">
         <v>143</v>
       </c>
@@ -3058,28 +3055,28 @@
       <c r="G74" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H74" s="71"/>
+      <c r="H74" s="59"/>
     </row>
     <row r="75" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B75" s="55" t="s">
+      <c r="B75" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="C75" s="55"/>
-      <c r="D75" s="55"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="55"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="58"/>
+      <c r="G75" s="58"/>
+      <c r="H75" s="58"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B76" s="69"/>
-      <c r="C76" s="66" t="s">
+      <c r="B76" s="67"/>
+      <c r="C76" s="54" t="s">
         <v>20</v>
       </c>
       <c r="D76" s="48" t="s">
@@ -3092,7 +3089,7 @@
       <c r="G76" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H76" s="56" t="s">
+      <c r="H76" s="64" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3100,8 +3097,8 @@
       <c r="A77" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="B77" s="69"/>
-      <c r="C77" s="67"/>
+      <c r="B77" s="67"/>
+      <c r="C77" s="55"/>
       <c r="D77" s="48" t="s">
         <v>182</v>
       </c>
@@ -3112,14 +3109,14 @@
       <c r="G77" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H77" s="57"/>
+      <c r="H77" s="69"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="B78" s="69"/>
-      <c r="C78" s="67"/>
+      <c r="B78" s="67"/>
+      <c r="C78" s="55"/>
       <c r="D78" s="7" t="s">
         <v>150</v>
       </c>
@@ -3130,14 +3127,14 @@
       <c r="G78" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H78" s="57"/>
+      <c r="H78" s="69"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="B79" s="69"/>
-      <c r="C79" s="67"/>
+      <c r="B79" s="67"/>
+      <c r="C79" s="55"/>
       <c r="D79" s="7" t="s">
         <v>152</v>
       </c>
@@ -3148,14 +3145,14 @@
       <c r="G79" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H79" s="58"/>
+      <c r="H79" s="65"/>
     </row>
     <row r="80" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="B80" s="69"/>
-      <c r="C80" s="67"/>
+      <c r="B80" s="67"/>
+      <c r="C80" s="55"/>
       <c r="D80" s="7" t="s">
         <v>154</v>
       </c>
@@ -3175,25 +3172,25 @@
       <c r="A81" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="B81" s="55" t="s">
+      <c r="B81" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="C81" s="55"/>
-      <c r="D81" s="55"/>
-      <c r="E81" s="55"/>
-      <c r="F81" s="55"/>
-      <c r="G81" s="55"/>
-      <c r="H81" s="55"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="58"/>
+      <c r="E81" s="58"/>
+      <c r="F81" s="58"/>
+      <c r="G81" s="58"/>
+      <c r="H81" s="58"/>
       <c r="I81" s="52"/>
     </row>
     <row r="82" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="B82" s="69" t="s">
+      <c r="B82" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="C82" s="66" t="s">
+      <c r="C82" s="54" t="s">
         <v>20</v>
       </c>
       <c r="D82" s="48" t="s">
@@ -3206,7 +3203,7 @@
       <c r="G82" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H82" s="59" t="s">
+      <c r="H82" s="70" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3214,8 +3211,8 @@
       <c r="A83" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="B83" s="69"/>
-      <c r="C83" s="67"/>
+      <c r="B83" s="67"/>
+      <c r="C83" s="55"/>
       <c r="D83" s="7" t="s">
         <v>161</v>
       </c>
@@ -3224,29 +3221,29 @@
       <c r="G83" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H83" s="60"/>
+      <c r="H83" s="71"/>
       <c r="I83" s="11"/>
     </row>
     <row r="84" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="B84" s="55" t="s">
+      <c r="B84" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="C84" s="55"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="55"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="55"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="58"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="58"/>
+      <c r="G84" s="58"/>
+      <c r="H84" s="58"/>
     </row>
     <row r="85" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="B85" s="65"/>
-      <c r="C85" s="66" t="s">
+      <c r="B85" s="63"/>
+      <c r="C85" s="54" t="s">
         <v>20</v>
       </c>
       <c r="D85" s="48" t="s">
@@ -3259,7 +3256,7 @@
       <c r="G85" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H85" s="56" t="s">
+      <c r="H85" s="64" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3267,8 +3264,8 @@
       <c r="A86" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="B86" s="65"/>
-      <c r="C86" s="67"/>
+      <c r="B86" s="63"/>
+      <c r="C86" s="55"/>
       <c r="D86" s="48" t="s">
         <v>181</v>
       </c>
@@ -3279,21 +3276,21 @@
       <c r="G86" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H86" s="58"/>
+      <c r="H86" s="65"/>
     </row>
     <row r="87" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="B87" s="55" t="s">
+      <c r="B87" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="C87" s="55"/>
-      <c r="D87" s="55"/>
-      <c r="E87" s="55"/>
-      <c r="F87" s="55"/>
-      <c r="G87" s="55"/>
-      <c r="H87" s="55"/>
+      <c r="C87" s="58"/>
+      <c r="D87" s="58"/>
+      <c r="E87" s="58"/>
+      <c r="F87" s="58"/>
+      <c r="G87" s="58"/>
+      <c r="H87" s="58"/>
     </row>
     <row r="88" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A88" s="25" t="s">
@@ -3323,15 +3320,15 @@
       <c r="A89" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="B89" s="55" t="s">
+      <c r="B89" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="C89" s="55"/>
-      <c r="D89" s="55"/>
-      <c r="E89" s="55"/>
-      <c r="F89" s="55"/>
-      <c r="G89" s="55"/>
-      <c r="H89" s="55"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="58"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="58"/>
     </row>
     <row r="90" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="25" t="s">
@@ -3360,11 +3357,11 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="32"/>
-      <c r="F92" s="54" t="s">
+      <c r="F92" s="68" t="s">
         <v>173</v>
       </c>
-      <c r="G92" s="54"/>
-      <c r="H92" s="54"/>
+      <c r="G92" s="68"/>
+      <c r="H92" s="68"/>
     </row>
     <row r="93" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="32"/>
@@ -3493,20 +3490,48 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C40:C47"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="B40:B47"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B26:B34"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="B89:H89"/>
+    <mergeCell ref="H43:H47"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="H64:H66"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H76:H79"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="B87:H87"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B81:H81"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="B54:B56"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="H71:H74"/>
     <mergeCell ref="C12:C16"/>
@@ -3523,50 +3548,21 @@
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="B87:H87"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B81:H81"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="B89:H89"/>
-    <mergeCell ref="H43:H47"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="H64:H66"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H76:H79"/>
-    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C40:C47"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B18:B24"/>
   </mergeCells>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="3.937007874015748E-2" footer="3.937007874015748E-2"/>
-  <pageSetup paperSize="8" scale="98" fitToHeight="10" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test Documentation/Checklists/Web_app/Checklists for learn.epam.com _STA course.xlsx
+++ b/Test Documentation/Checklists/Web_app/Checklists for learn.epam.com _STA course.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilia\Documents\I-Tester_Portfolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilia\Documents\I-Tester_Portfolio\Portfolio_Tester\Test Documentation\Checklists\Web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B80F42-BD30-435D-95A8-16541EA72C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E7E06C-86AE-430A-A590-20AF56AF2EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-4430" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -736,7 +736,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -811,30 +811,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -920,43 +907,187 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -964,188 +1095,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1470,84 +1436,84 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="42"/>
-    <col min="2" max="2" width="60.88671875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" style="42" customWidth="1"/>
-    <col min="4" max="4" width="105.88671875" style="40" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="33"/>
+    <col min="2" max="2" width="60.88671875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="105.88671875" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="360" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="36" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1564,32 +1530,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P126"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="33" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="73.5546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="78.33203125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="68" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="73.5546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="78.33203125" style="22" customWidth="1"/>
     <col min="9" max="9" width="80.5546875" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1607,1889 +1573,1746 @@
       <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+    </row>
+    <row r="3" spans="1:10" s="45" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-    </row>
-    <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="59" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="62" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="48" t="s">
+      <c r="B5" s="61"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="59"/>
-    </row>
-    <row r="6" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="62"/>
+    </row>
+    <row r="6" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="20" t="s">
+      <c r="B6" s="61"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="53" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="14" t="s">
+      <c r="G6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="J6" s="66"/>
+    </row>
+    <row r="7" spans="1:10" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="48" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="14" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="48" t="s">
+      <c r="B8" s="61"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="70" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="48" t="s">
+      <c r="B9" s="61"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="71"/>
-    </row>
-    <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="52"/>
+    </row>
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="47" t="s">
+      <c r="B10" s="61"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="26" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+    <row r="11" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+    </row>
+    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="54" t="s">
+      <c r="B12" s="61"/>
+      <c r="C12" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="59" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="62" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="48" t="s">
+      <c r="B13" s="61"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="59"/>
-    </row>
-    <row r="14" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="62"/>
+    </row>
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="7" t="s">
+      <c r="B14" s="61"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="53" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="14" t="s">
+      <c r="G14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="7" t="s">
+      <c r="B15" s="61"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="29" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="48" t="s">
+      <c r="B16" s="61"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="26" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
+    <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="1:16" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+    </row>
+    <row r="18" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="54" t="s">
+      <c r="B18" s="65"/>
+      <c r="C18" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="19" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-    </row>
-    <row r="19" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
+    </row>
+    <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="48" t="s">
+      <c r="B19" s="65"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="27" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="48" t="s">
+      <c r="B20" s="65"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="19" t="s">
+      <c r="E20" s="4"/>
+      <c r="F20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
+    <row r="21" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="48" t="s">
+      <c r="B21" s="65"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="72" t="s">
+      <c r="E21" s="4"/>
+      <c r="F21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="53" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
+    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="48" t="s">
+      <c r="B22" s="65"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="73"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
+      <c r="E22" s="4"/>
+      <c r="F22" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="54"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="48" t="s">
+      <c r="B23" s="65"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="19" t="s">
+      <c r="E23" s="4"/>
+      <c r="F23" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="64" t="s">
+      <c r="H23" s="48" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="48" t="s">
+      <c r="B24" s="65"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="19" t="s">
+      <c r="E24" s="4"/>
+      <c r="F24" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="65"/>
-    </row>
-    <row r="25" spans="1:16" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
+      <c r="H24" s="50"/>
+    </row>
+    <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-    </row>
-    <row r="26" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+    </row>
+    <row r="26" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="54" t="s">
+      <c r="B26" s="61"/>
+      <c r="C26" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="59" t="s">
+      <c r="E26" s="4"/>
+      <c r="F26" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="62" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="s">
+    <row r="27" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="48" t="s">
+      <c r="B27" s="61"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="59"/>
-    </row>
-    <row r="28" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
+      <c r="E27" s="4"/>
+      <c r="F27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="62"/>
+    </row>
+    <row r="28" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="7" t="s">
+      <c r="B28" s="61"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="53" t="s">
+      <c r="E28" s="3"/>
+      <c r="F28" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="72" t="s">
+      <c r="G28" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="53" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="25" t="s">
+    <row r="29" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="56"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="7" t="s">
+      <c r="B29" s="61"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="53" t="s">
+      <c r="E29" s="3"/>
+      <c r="F29" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" s="74"/>
-    </row>
-    <row r="30" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="25" t="s">
+      <c r="G29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="55"/>
+    </row>
+    <row r="30" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="48" t="s">
+      <c r="B30" s="61"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="53" t="s">
+      <c r="E30" s="4"/>
+      <c r="F30" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="73"/>
-    </row>
-    <row r="31" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="25" t="s">
+      <c r="G30" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="54"/>
+    </row>
+    <row r="31" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="48" t="s">
+      <c r="B31" s="61"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" s="19" t="s">
+      <c r="E31" s="4"/>
+      <c r="F31" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="64" t="s">
+      <c r="H31" s="48" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="25" t="s">
+    <row r="32" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="48" t="s">
+      <c r="B32" s="61"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="19" t="s">
+      <c r="E32" s="4"/>
+      <c r="F32" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="65"/>
-    </row>
-    <row r="33" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="25" t="s">
+      <c r="H32" s="50"/>
+    </row>
+    <row r="33" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="7" t="s">
+      <c r="B33" s="61"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="53" t="s">
+      <c r="E33" s="4"/>
+      <c r="F33" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" s="14" t="s">
+      <c r="G33" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="25" t="s">
+    <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="7" t="s">
+      <c r="B34" s="61"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" s="19" t="s">
+      <c r="E34" s="4"/>
+      <c r="F34" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="26" t="s">
+      <c r="H34" s="20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="31" t="s">
+    <row r="35" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-    </row>
-    <row r="36" spans="1:16" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="25" t="s">
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+    </row>
+    <row r="36" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="56"/>
-      <c r="C36" s="54" t="s">
+      <c r="B36" s="61"/>
+      <c r="C36" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H36" s="59" t="s">
+      <c r="E36" s="4"/>
+      <c r="F36" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="62" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="25" t="s">
+    <row r="37" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="47" t="s">
+      <c r="B37" s="61"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H37" s="59"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="25" t="s">
+      <c r="E37" s="4"/>
+      <c r="F37" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="62"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="56"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="47" t="s">
+      <c r="B38" s="61"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" s="59"/>
-    </row>
-    <row r="39" spans="1:16" s="9" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="31" t="s">
+      <c r="E38" s="4"/>
+      <c r="F38" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="62"/>
+    </row>
+    <row r="39" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-    </row>
-    <row r="40" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="25" t="s">
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+    </row>
+    <row r="40" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="56"/>
-      <c r="C40" s="54" t="s">
+      <c r="B40" s="61"/>
+      <c r="C40" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="47" t="s">
+      <c r="D40" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" s="19" t="s">
+      <c r="E40" s="4"/>
+      <c r="F40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H40" s="26" t="s">
+      <c r="H40" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="25" t="s">
+    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="56"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="47" t="s">
+      <c r="B41" s="61"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" s="19" t="s">
+      <c r="E41" s="4"/>
+      <c r="F41" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H41" s="64" t="s">
+      <c r="H41" s="48" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="25" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="56"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="47" t="s">
+      <c r="B42" s="61"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G42" s="19" t="s">
+      <c r="E42" s="4"/>
+      <c r="F42" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="65"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="25" t="s">
+      <c r="H42" s="50"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="56"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="47" t="s">
+      <c r="B43" s="61"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" s="19" t="s">
+      <c r="E43" s="4"/>
+      <c r="F43" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="64" t="s">
+      <c r="H43" s="48" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="25" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="56"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="47" t="s">
+      <c r="B44" s="61"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" s="19" t="s">
+      <c r="E44" s="4"/>
+      <c r="F44" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H44" s="69"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="25" t="s">
+      <c r="H44" s="49"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="56"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="47" t="s">
+      <c r="B45" s="61"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" s="19" t="s">
+      <c r="E45" s="4"/>
+      <c r="F45" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="69"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="25" t="s">
+      <c r="H45" s="49"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="56"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="47" t="s">
+      <c r="B46" s="61"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G46" s="19" t="s">
+      <c r="E46" s="4"/>
+      <c r="F46" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H46" s="69"/>
-    </row>
-    <row r="47" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="25" t="s">
+      <c r="H46" s="49"/>
+    </row>
+    <row r="47" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="56"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="47" t="s">
+      <c r="B47" s="61"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" s="19" t="s">
+      <c r="E47" s="4"/>
+      <c r="F47" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H47" s="65"/>
-    </row>
-    <row r="48" spans="1:16" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="31" t="s">
+      <c r="H47" s="50"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-    </row>
-    <row r="49" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="25" t="s">
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+    </row>
+    <row r="49" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="56"/>
-      <c r="C49" s="54" t="s">
+      <c r="B49" s="61"/>
+      <c r="C49" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="48" t="s">
+      <c r="D49" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" s="19" t="s">
+      <c r="E49" s="4"/>
+      <c r="F49" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H49" s="64" t="s">
+      <c r="H49" s="48" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="25" t="s">
+    <row r="50" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="56"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="48" t="s">
+      <c r="B50" s="61"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G50" s="19" t="s">
+      <c r="E50" s="4"/>
+      <c r="F50" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H50" s="65"/>
-    </row>
-    <row r="51" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="25" t="s">
+      <c r="H50" s="50"/>
+    </row>
+    <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="56"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="7" t="s">
+      <c r="B51" s="61"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H51" s="70" t="s">
+      <c r="E51" s="4"/>
+      <c r="F51" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" s="51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="25" t="s">
+    <row r="52" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="56"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="7" t="s">
+      <c r="B52" s="61"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" s="71"/>
-    </row>
-    <row r="53" spans="1:16" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="31" t="s">
+      <c r="E52" s="4"/>
+      <c r="F52" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" s="52"/>
+    </row>
+    <row r="53" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="57" t="s">
+      <c r="B53" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="25" t="s">
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="56"/>
-      <c r="C54" s="54" t="s">
+      <c r="B54" s="61"/>
+      <c r="C54" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G54" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H54" s="70" t="s">
+      <c r="E54" s="4"/>
+      <c r="F54" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" s="51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="25" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="56"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="7" t="s">
+      <c r="B55" s="61"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" s="75"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="25" t="s">
+      <c r="E55" s="4"/>
+      <c r="F55" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" s="56"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="56"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="7" t="s">
+      <c r="B56" s="61"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H56" s="71"/>
-    </row>
-    <row r="57" spans="1:16" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="31" t="s">
+      <c r="E56" s="4"/>
+      <c r="F56" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" s="52"/>
+    </row>
+    <row r="57" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="58" t="s">
+      <c r="B57" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="58"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-    </row>
-    <row r="58" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="25" t="s">
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+    </row>
+    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="56"/>
-      <c r="C58" s="54" t="s">
+      <c r="B58" s="61"/>
+      <c r="C58" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="48" t="s">
+      <c r="D58" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G58" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H58" s="59" t="s">
+      <c r="E58" s="4"/>
+      <c r="F58" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" s="62" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="25" t="s">
+    <row r="59" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="56"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="7" t="s">
+      <c r="B59" s="61"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G59" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H59" s="62"/>
-    </row>
-    <row r="60" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="25" t="s">
+      <c r="E59" s="4"/>
+      <c r="F59" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" s="63"/>
+    </row>
+    <row r="60" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="56"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="7" t="s">
+      <c r="B60" s="61"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G60" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H60" s="62"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A61" s="25" t="s">
+      <c r="E60" s="4"/>
+      <c r="F60" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" s="63"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="56"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="48" t="s">
+      <c r="B61" s="61"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G61" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H61" s="62"/>
-    </row>
-    <row r="62" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="61" t="s">
+      <c r="E61" s="4"/>
+      <c r="F61" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" s="63"/>
+    </row>
+    <row r="62" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="B62" s="61"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="61"/>
-      <c r="H62" s="61"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-    </row>
-    <row r="63" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="31" t="s">
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+    </row>
+    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="58" t="s">
+      <c r="B63" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-    </row>
-    <row r="64" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="66" t="s">
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="47"/>
+    </row>
+    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="B64" s="67"/>
-      <c r="C64" s="54" t="s">
+      <c r="B64" s="60"/>
+      <c r="C64" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="49" t="s">
+      <c r="D64" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="E64" s="13"/>
-      <c r="F64" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G64" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H64" s="70" t="s">
+      <c r="E64" s="8"/>
+      <c r="F64" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" s="51" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="66"/>
-      <c r="B65" s="67"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="14" t="s">
+      <c r="A65" s="67"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E65" s="13"/>
-      <c r="F65" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G65" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H65" s="75"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" s="56"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="66"/>
-      <c r="B66" s="67"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="49" t="s">
+      <c r="A66" s="67"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="E66" s="13"/>
-      <c r="F66" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G66" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H66" s="71"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="31" t="s">
+      <c r="E66" s="8"/>
+      <c r="F66" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" s="52"/>
+    </row>
+    <row r="67" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="B67" s="58" t="s">
+      <c r="B67" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="58"/>
-      <c r="H67" s="58"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="47"/>
     </row>
     <row r="68" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="B68" s="56"/>
-      <c r="C68" s="54" t="s">
+      <c r="B68" s="61"/>
+      <c r="C68" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="48" t="s">
+      <c r="D68" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G68" s="19" t="s">
+      <c r="E68" s="4"/>
+      <c r="F68" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G68" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H68" s="64" t="s">
+      <c r="H68" s="48" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="B69" s="56"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="7" t="s">
+      <c r="B69" s="61"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G69" s="19" t="s">
+      <c r="E69" s="4"/>
+      <c r="F69" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G69" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H69" s="65"/>
+      <c r="H69" s="50"/>
     </row>
     <row r="70" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="B70" s="58" t="s">
+      <c r="B70" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="58"/>
-      <c r="D70" s="58"/>
-      <c r="E70" s="58"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="58"/>
-      <c r="H70" s="58"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="47"/>
+      <c r="H70" s="47"/>
     </row>
     <row r="71" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="B71" s="56"/>
-      <c r="C71" s="54" t="s">
+      <c r="B71" s="61"/>
+      <c r="C71" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E71" s="8"/>
-      <c r="F71" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G71" s="19" t="s">
+      <c r="E71" s="4"/>
+      <c r="F71" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G71" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H71" s="59" t="s">
+      <c r="H71" s="62" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="B72" s="56"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="7" t="s">
+      <c r="B72" s="61"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E72" s="8"/>
-      <c r="F72" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G72" s="19" t="s">
+      <c r="E72" s="4"/>
+      <c r="F72" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G72" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H72" s="59"/>
+      <c r="H72" s="62"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="B73" s="56"/>
-      <c r="C73" s="55"/>
-      <c r="D73" s="7" t="s">
+      <c r="B73" s="61"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E73" s="8"/>
-      <c r="F73" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G73" s="19" t="s">
+      <c r="E73" s="4"/>
+      <c r="F73" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G73" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H73" s="59"/>
+      <c r="H73" s="62"/>
     </row>
     <row r="74" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="B74" s="56"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="7" t="s">
+      <c r="B74" s="61"/>
+      <c r="C74" s="59"/>
+      <c r="D74" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G74" s="19" t="s">
+      <c r="E74" s="4"/>
+      <c r="F74" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G74" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H74" s="59"/>
+      <c r="H74" s="62"/>
     </row>
     <row r="75" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="B75" s="58" t="s">
+      <c r="B75" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="C75" s="58"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="58"/>
-      <c r="H75" s="58"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="47"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="B76" s="67"/>
-      <c r="C76" s="54" t="s">
+      <c r="B76" s="60"/>
+      <c r="C76" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="48" t="s">
+      <c r="D76" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="E76" s="8"/>
-      <c r="F76" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G76" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H76" s="64" t="s">
+      <c r="E76" s="4"/>
+      <c r="F76" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" s="48" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="B77" s="67"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="48" t="s">
+      <c r="B77" s="60"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="E77" s="8"/>
-      <c r="F77" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G77" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H77" s="69"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" s="49"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="B78" s="67"/>
-      <c r="C78" s="55"/>
-      <c r="D78" s="7" t="s">
+      <c r="B78" s="60"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E78" s="8"/>
-      <c r="F78" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G78" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H78" s="69"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" s="49"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="B79" s="67"/>
-      <c r="C79" s="55"/>
-      <c r="D79" s="7" t="s">
+      <c r="B79" s="60"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E79" s="8"/>
-      <c r="F79" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G79" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H79" s="65"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" s="50"/>
     </row>
     <row r="80" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="25" t="s">
+      <c r="A80" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="B80" s="67"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="7" t="s">
+      <c r="B80" s="60"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E80" s="7"/>
-      <c r="F80" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G80" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H80" s="29" t="s">
+      <c r="E80" s="3"/>
+      <c r="F80" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I80" s="52"/>
+      <c r="I80" s="43"/>
     </row>
     <row r="81" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="31" t="s">
+      <c r="A81" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="B81" s="58" t="s">
+      <c r="B81" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="C81" s="58"/>
-      <c r="D81" s="58"/>
-      <c r="E81" s="58"/>
-      <c r="F81" s="58"/>
-      <c r="G81" s="58"/>
-      <c r="H81" s="58"/>
-      <c r="I81" s="52"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="47"/>
+      <c r="H81" s="47"/>
+      <c r="I81" s="43"/>
     </row>
     <row r="82" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="B82" s="67" t="s">
+      <c r="B82" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="C82" s="54" t="s">
+      <c r="C82" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="48" t="s">
+      <c r="D82" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="E82" s="8"/>
-      <c r="F82" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G82" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H82" s="70" t="s">
+      <c r="E82" s="4"/>
+      <c r="F82" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H82" s="51" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="B83" s="67"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="7" t="s">
+      <c r="B83" s="60"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E83" s="8"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H83" s="71"/>
-      <c r="I83" s="11"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" s="52"/>
+      <c r="I83" s="6"/>
     </row>
     <row r="84" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="31" t="s">
+      <c r="A84" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="B84" s="58" t="s">
+      <c r="B84" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="C84" s="58"/>
-      <c r="D84" s="58"/>
-      <c r="E84" s="58"/>
-      <c r="F84" s="58"/>
-      <c r="G84" s="58"/>
-      <c r="H84" s="58"/>
+      <c r="C84" s="47"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="47"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="47"/>
+      <c r="H84" s="47"/>
     </row>
     <row r="85" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="B85" s="63"/>
-      <c r="C85" s="54" t="s">
+      <c r="B85" s="57"/>
+      <c r="C85" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D85" s="48" t="s">
+      <c r="D85" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="E85" s="8"/>
-      <c r="F85" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G85" s="19" t="s">
+      <c r="E85" s="4"/>
+      <c r="F85" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G85" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H85" s="64" t="s">
+      <c r="H85" s="48" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="B86" s="63"/>
-      <c r="C86" s="55"/>
-      <c r="D86" s="48" t="s">
+      <c r="B86" s="57"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="E86" s="8"/>
-      <c r="F86" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G86" s="19" t="s">
+      <c r="E86" s="4"/>
+      <c r="F86" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G86" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H86" s="65"/>
+      <c r="H86" s="50"/>
     </row>
     <row r="87" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="31" t="s">
+      <c r="A87" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="B87" s="58" t="s">
+      <c r="B87" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="C87" s="58"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="58"/>
-      <c r="F87" s="58"/>
-      <c r="G87" s="58"/>
-      <c r="H87" s="58"/>
+      <c r="C87" s="47"/>
+      <c r="D87" s="47"/>
+      <c r="E87" s="47"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="47"/>
+      <c r="H87" s="47"/>
     </row>
     <row r="88" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="25" t="s">
+      <c r="A88" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C88" s="50" t="s">
+      <c r="C88" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="48" t="s">
+      <c r="D88" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="E88" s="8"/>
-      <c r="F88" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G88" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H88" s="29" t="s">
+      <c r="E88" s="4"/>
+      <c r="F88" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H88" s="23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="31" t="s">
+      <c r="A89" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="B89" s="58" t="s">
+      <c r="B89" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="C89" s="58"/>
-      <c r="D89" s="58"/>
-      <c r="E89" s="58"/>
-      <c r="F89" s="58"/>
-      <c r="G89" s="58"/>
-      <c r="H89" s="58"/>
+      <c r="C89" s="47"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="47"/>
+      <c r="H89" s="47"/>
     </row>
     <row r="90" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="B90" s="13"/>
-      <c r="C90" s="50" t="s">
+      <c r="B90" s="8"/>
+      <c r="C90" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D90" s="48" t="s">
+      <c r="D90" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="E90" s="8"/>
-      <c r="F90" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G90" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H90" s="29" t="s">
+      <c r="E90" s="4"/>
+      <c r="F90" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H90" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="32"/>
-    </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="32"/>
-      <c r="F92" s="68" t="s">
+      <c r="F92" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="G92" s="68"/>
-      <c r="H92" s="68"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="46"/>
     </row>
     <row r="93" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="32"/>
-      <c r="F93" s="36" t="s">
+      <c r="F93" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="G93" s="37"/>
-      <c r="H93" s="21" t="s">
+      <c r="G93" s="28"/>
+      <c r="H93" s="16" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A94" s="32"/>
-      <c r="E94" s="34"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="13" t="s">
+      <c r="E94" s="25"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="H94" s="7" t="s">
+      <c r="H94" s="3" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="32"/>
       <c r="G95" s="2"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="32"/>
-      <c r="B96" s="24"/>
+      <c r="B96" s="19"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="32"/>
-      <c r="G97" s="35"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="32"/>
-      <c r="G98" s="28"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="32"/>
-      <c r="G99" s="28"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="32"/>
-      <c r="G100" s="28"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="32"/>
-      <c r="G101" s="28"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="32"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="32"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="32"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="32"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="32"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="32"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="32"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="32"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="32"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="32"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="32"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="32"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="32"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="32"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="32"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="32"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="32"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="32"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="32"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="32"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="32"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="32"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="32"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="32"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="32"/>
+    <row r="97" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G97" s="26"/>
+    </row>
+    <row r="98" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G98" s="22"/>
+    </row>
+    <row r="99" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G99" s="22"/>
+    </row>
+    <row r="100" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G100" s="22"/>
+    </row>
+    <row r="101" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G101" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C40:C47"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="H71:H74"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="C26:C34"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="B87:H87"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B81:H81"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="C68:C69"/>
     <mergeCell ref="F92:H92"/>
     <mergeCell ref="B89:H89"/>
     <mergeCell ref="H43:H47"/>
@@ -3506,62 +3329,6 @@
     <mergeCell ref="H68:H69"/>
     <mergeCell ref="H76:H79"/>
     <mergeCell ref="H82:H83"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="B87:H87"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B81:H81"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="H71:H74"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="C26:C34"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C40:C47"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="B40:B47"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B26:B34"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B18:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test Documentation/Checklists/Web_app/Checklists for learn.epam.com _STA course.xlsx
+++ b/Test Documentation/Checklists/Web_app/Checklists for learn.epam.com _STA course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilia\Documents\I-Tester_Portfolio\Portfolio_Tester\Test Documentation\Checklists\Web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6109938E-6A55-45CC-816A-7CADCA97F968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D187FD-3340-4219-BDE8-FD8B726D842F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-4430" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="203">
   <si>
     <t>1.</t>
   </si>
@@ -511,9 +511,6 @@
 - Integration Test Cases</t>
   </si>
   <si>
-    <t xml:space="preserve">The button "Send" the message works correctly. </t>
-  </si>
-  <si>
     <t>The possibility of loading the application within a specified amount of time.</t>
   </si>
   <si>
@@ -670,13 +667,19 @@
   </si>
   <si>
     <t>Compatibility testing</t>
+  </si>
+  <si>
+    <t>The button "Send" the message works correctly.</t>
+  </si>
+  <si>
+    <t>Back on main page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -761,6 +764,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -854,7 +865,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1020,6 +1031,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1370,7 +1384,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>8</v>
@@ -1379,12 +1393,12 @@
         <v>9</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -1399,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
@@ -1417,7 +1431,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="10" t="s">
@@ -1437,7 +1451,7 @@
       <c r="B5" s="37"/>
       <c r="C5" s="36"/>
       <c r="D5" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="10" t="s">
@@ -1455,7 +1469,7 @@
       <c r="B6" s="37"/>
       <c r="C6" s="36"/>
       <c r="D6" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="29" t="s">
@@ -1465,7 +1479,7 @@
         <v>11</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1475,7 +1489,7 @@
       <c r="B7" s="37"/>
       <c r="C7" s="36"/>
       <c r="D7" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="10" t="s">
@@ -1495,7 +1509,7 @@
       <c r="B8" s="37"/>
       <c r="C8" s="36"/>
       <c r="D8" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="10" t="s">
@@ -1515,7 +1529,7 @@
       <c r="B9" s="37"/>
       <c r="C9" s="36"/>
       <c r="D9" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="10" t="s">
@@ -1533,7 +1547,7 @@
       <c r="B10" s="37"/>
       <c r="C10" s="36"/>
       <c r="D10" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="10" t="s">
@@ -1569,7 +1583,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="10" t="s">
@@ -1589,7 +1603,7 @@
       <c r="B13" s="37"/>
       <c r="C13" s="36"/>
       <c r="D13" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="10" t="s">
@@ -1617,7 +1631,7 @@
         <v>11</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1627,7 +1641,7 @@
       <c r="B15" s="37"/>
       <c r="C15" s="36"/>
       <c r="D15" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="10" t="s">
@@ -1647,7 +1661,7 @@
       <c r="B16" s="37"/>
       <c r="C16" s="36"/>
       <c r="D16" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="10" t="s">
@@ -1683,7 +1697,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="10" t="s">
@@ -1703,7 +1717,7 @@
       <c r="B19" s="40"/>
       <c r="C19" s="36"/>
       <c r="D19" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="10" t="s">
@@ -1723,7 +1737,7 @@
       <c r="B20" s="40"/>
       <c r="C20" s="36"/>
       <c r="D20" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="10" t="s">
@@ -1743,7 +1757,7 @@
       <c r="B21" s="40"/>
       <c r="C21" s="36"/>
       <c r="D21" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="10" t="s">
@@ -1763,7 +1777,7 @@
       <c r="B22" s="40"/>
       <c r="C22" s="36"/>
       <c r="D22" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="10" t="s">
@@ -1781,7 +1795,7 @@
       <c r="B23" s="40"/>
       <c r="C23" s="36"/>
       <c r="D23" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="10" t="s">
@@ -1801,7 +1815,7 @@
       <c r="B24" s="40"/>
       <c r="C24" s="36"/>
       <c r="D24" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="10" t="s">
@@ -1835,7 +1849,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="10" t="s">
@@ -1855,7 +1869,7 @@
       <c r="B27" s="37"/>
       <c r="C27" s="36"/>
       <c r="D27" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="10" t="s">
@@ -1873,7 +1887,7 @@
       <c r="B28" s="37"/>
       <c r="C28" s="36"/>
       <c r="D28" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="29" t="s">
@@ -1883,7 +1897,7 @@
         <v>11</v>
       </c>
       <c r="H28" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1893,7 +1907,7 @@
       <c r="B29" s="37"/>
       <c r="C29" s="36"/>
       <c r="D29" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="29" t="s">
@@ -1949,7 +1963,7 @@
       <c r="B32" s="37"/>
       <c r="C32" s="36"/>
       <c r="D32" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="29" t="s">
@@ -1977,7 +1991,7 @@
         <v>11</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2023,7 +2037,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="10" t="s">
@@ -2153,7 +2167,7 @@
       <c r="B43" s="37"/>
       <c r="C43" s="36"/>
       <c r="D43" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="10" t="s">
@@ -2173,7 +2187,7 @@
       <c r="B44" s="37"/>
       <c r="C44" s="36"/>
       <c r="D44" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="10" t="s">
@@ -2191,7 +2205,7 @@
       <c r="B45" s="37"/>
       <c r="C45" s="36"/>
       <c r="D45" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="10" t="s">
@@ -2209,7 +2223,7 @@
       <c r="B46" s="37"/>
       <c r="C46" s="36"/>
       <c r="D46" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="10" t="s">
@@ -2261,7 +2275,7 @@
         <v>6</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="10" t="s">
@@ -2281,7 +2295,7 @@
       <c r="B50" s="37"/>
       <c r="C50" s="36"/>
       <c r="D50" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="10" t="s">
@@ -2407,7 +2421,7 @@
         <v>92</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C57" s="38"/>
       <c r="D57" s="38"/>
@@ -2425,7 +2439,7 @@
         <v>6</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="10" t="s">
@@ -2481,7 +2495,7 @@
       <c r="B61" s="37"/>
       <c r="C61" s="36"/>
       <c r="D61" s="26" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="10" t="s">
@@ -2494,7 +2508,7 @@
     </row>
     <row r="62" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B62" s="41"/>
       <c r="C62" s="41"/>
@@ -2561,7 +2575,7 @@
       <c r="B66" s="47"/>
       <c r="C66" s="36"/>
       <c r="D66" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="10" t="s">
@@ -2577,7 +2591,7 @@
         <v>104</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C67" s="38"/>
       <c r="D67" s="38"/>
@@ -2595,7 +2609,7 @@
         <v>6</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="10" t="s">
@@ -2739,7 +2753,7 @@
         <v>6</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="10" t="s">
@@ -2759,7 +2773,7 @@
       <c r="B77" s="47"/>
       <c r="C77" s="36"/>
       <c r="D77" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="10" t="s">
@@ -2903,7 +2917,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="10" t="s">
@@ -2923,7 +2937,7 @@
       <c r="B86" s="43"/>
       <c r="C86" s="36"/>
       <c r="D86" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="10" t="s">
@@ -2939,7 +2953,7 @@
         <v>142</v>
       </c>
       <c r="B87" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C87" s="38"/>
       <c r="D87" s="38"/>
@@ -2993,7 +3007,7 @@
         <v>6</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="10" t="s">
@@ -3023,6 +3037,9 @@
       </c>
     </row>
     <row r="94" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="B94" s="56" t="s">
+        <v>202</v>
+      </c>
       <c r="E94" s="21"/>
       <c r="F94" s="10"/>
       <c r="G94" s="6" t="s">
@@ -3129,7 +3146,10 @@
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B18:B24"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B94" r:id="rId1" xr:uid="{20CAD1C3-6D87-46FA-9061-9B6B6860129B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Test Documentation/Checklists/Web_app/Checklists for learn.epam.com _STA course.xlsx
+++ b/Test Documentation/Checklists/Web_app/Checklists for learn.epam.com _STA course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilia\Documents\I-Tester_Portfolio\Portfolio_Tester\Test Documentation\Checklists\Web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D187FD-3340-4219-BDE8-FD8B726D842F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952D19D7-0DC0-47C6-A4D5-3ECFFD2B0196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-4430" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -969,70 +969,70 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1397,37 +1397,37 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
     </row>
     <row r="3" spans="1:8" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="35" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="25" t="s">
@@ -1440,7 +1440,7 @@
       <c r="G4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="53" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1448,8 +1448,8 @@
       <c r="A5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="36"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="26" t="s">
         <v>180</v>
       </c>
@@ -1460,14 +1460,14 @@
       <c r="G5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="39"/>
+      <c r="H5" s="53"/>
     </row>
     <row r="6" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="36"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="12" t="s">
         <v>188</v>
       </c>
@@ -1486,8 +1486,8 @@
       <c r="A7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="36"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="26" t="s">
         <v>179</v>
       </c>
@@ -1506,8 +1506,8 @@
       <c r="A8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="36"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="26" t="s">
         <v>174</v>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="G8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="41" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1526,8 +1526,8 @@
       <c r="A9" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="36"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="26" t="s">
         <v>175</v>
       </c>
@@ -1538,14 +1538,14 @@
       <c r="G9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="51"/>
+      <c r="H9" s="42"/>
     </row>
     <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="36"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="25" t="s">
         <v>181</v>
       </c>
@@ -1564,22 +1564,22 @@
       <c r="A11" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="35" t="s">
+      <c r="B12" s="52"/>
+      <c r="C12" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="26" t="s">
@@ -1592,7 +1592,7 @@
       <c r="G12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="H12" s="53" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1600,8 +1600,8 @@
       <c r="A13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="36"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="26" t="s">
         <v>170</v>
       </c>
@@ -1612,14 +1612,14 @@
       <c r="G13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="39"/>
+      <c r="H13" s="53"/>
     </row>
     <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="36"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1638,8 +1638,8 @@
       <c r="A15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="36"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="2" t="s">
         <v>190</v>
       </c>
@@ -1658,8 +1658,8 @@
       <c r="A16" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="36"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="26" t="s">
         <v>171</v>
       </c>
@@ -1678,22 +1678,22 @@
       <c r="A17" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
     </row>
     <row r="18" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="35" t="s">
+      <c r="B18" s="56"/>
+      <c r="C18" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="26" t="s">
@@ -1714,8 +1714,8 @@
       <c r="A19" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="36"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="26" t="s">
         <v>177</v>
       </c>
@@ -1734,8 +1734,8 @@
       <c r="A20" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="36"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="26" t="s">
         <v>168</v>
       </c>
@@ -1754,8 +1754,8 @@
       <c r="A21" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="36"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="26" t="s">
         <v>173</v>
       </c>
@@ -1766,7 +1766,7 @@
       <c r="G21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="52" t="s">
+      <c r="H21" s="43" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1774,8 +1774,8 @@
       <c r="A22" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="36"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="26" t="s">
         <v>172</v>
       </c>
@@ -1786,14 +1786,14 @@
       <c r="G22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="53"/>
+      <c r="H22" s="44"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="36"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="26" t="s">
         <v>183</v>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="G23" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="44" t="s">
+      <c r="H23" s="38" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1812,8 +1812,8 @@
       <c r="A24" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="36"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="26" t="s">
         <v>182</v>
       </c>
@@ -1824,28 +1824,28 @@
       <c r="G24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="45"/>
+      <c r="H24" s="40"/>
     </row>
     <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="35" t="s">
+      <c r="B26" s="52"/>
+      <c r="C26" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1858,7 +1858,7 @@
       <c r="G26" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="39" t="s">
+      <c r="H26" s="53" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1866,8 +1866,8 @@
       <c r="A27" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="36"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="26" t="s">
         <v>169</v>
       </c>
@@ -1878,14 +1878,14 @@
       <c r="G27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="39"/>
+      <c r="H27" s="53"/>
     </row>
     <row r="28" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="36"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="2" t="s">
         <v>193</v>
       </c>
@@ -1896,7 +1896,7 @@
       <c r="G28" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="52" t="s">
+      <c r="H28" s="43" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1904,8 +1904,8 @@
       <c r="A29" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="36"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="2" t="s">
         <v>192</v>
       </c>
@@ -1916,14 +1916,14 @@
       <c r="G29" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="54"/>
+      <c r="H29" s="45"/>
     </row>
     <row r="30" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="36"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="49"/>
       <c r="D30" s="26" t="s">
         <v>46</v>
       </c>
@@ -1934,14 +1934,14 @@
       <c r="G30" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="53"/>
+      <c r="H30" s="44"/>
     </row>
     <row r="31" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="36"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="26" t="s">
         <v>48</v>
       </c>
@@ -1952,7 +1952,7 @@
       <c r="G31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="44" t="s">
+      <c r="H31" s="38" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1960,8 +1960,8 @@
       <c r="A32" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="36"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="26" t="s">
         <v>161</v>
       </c>
@@ -1972,14 +1972,14 @@
       <c r="G32" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H32" s="45"/>
+      <c r="H32" s="40"/>
     </row>
     <row r="33" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="36"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="49"/>
       <c r="D33" s="2" t="s">
         <v>51</v>
       </c>
@@ -1998,8 +1998,8 @@
       <c r="A34" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="36"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="2" t="s">
         <v>53</v>
       </c>
@@ -2018,22 +2018,22 @@
       <c r="A35" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
     </row>
     <row r="36" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="35" t="s">
+      <c r="B36" s="52"/>
+      <c r="C36" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="25" t="s">
@@ -2046,7 +2046,7 @@
       <c r="G36" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="39" t="s">
+      <c r="H36" s="53" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2054,8 +2054,8 @@
       <c r="A37" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="36"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="49"/>
       <c r="D37" s="25" t="s">
         <v>59</v>
       </c>
@@ -2066,14 +2066,14 @@
       <c r="G37" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="39"/>
+      <c r="H37" s="53"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="36"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="25" t="s">
         <v>61</v>
       </c>
@@ -2084,28 +2084,28 @@
       <c r="G38" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="39"/>
+      <c r="H38" s="53"/>
     </row>
     <row r="39" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
     </row>
     <row r="40" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="35" t="s">
+      <c r="B40" s="52"/>
+      <c r="C40" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="25" t="s">
@@ -2126,8 +2126,8 @@
       <c r="A41" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="36"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="25" t="s">
         <v>67</v>
       </c>
@@ -2138,7 +2138,7 @@
       <c r="G41" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="44" t="s">
+      <c r="H41" s="38" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2146,8 +2146,8 @@
       <c r="A42" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="36"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="25" t="s">
         <v>69</v>
       </c>
@@ -2158,14 +2158,14 @@
       <c r="G42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H42" s="45"/>
+      <c r="H42" s="40"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="37"/>
-      <c r="C43" s="36"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="25" t="s">
         <v>162</v>
       </c>
@@ -2176,7 +2176,7 @@
       <c r="G43" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H43" s="44" t="s">
+      <c r="H43" s="38" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2184,8 +2184,8 @@
       <c r="A44" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="36"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="25" t="s">
         <v>163</v>
       </c>
@@ -2196,14 +2196,14 @@
       <c r="G44" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H44" s="49"/>
+      <c r="H44" s="39"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="36"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="25" t="s">
         <v>164</v>
       </c>
@@ -2214,14 +2214,14 @@
       <c r="G45" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H45" s="49"/>
+      <c r="H45" s="39"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="36"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="49"/>
       <c r="D46" s="25" t="s">
         <v>165</v>
       </c>
@@ -2232,14 +2232,14 @@
       <c r="G46" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="49"/>
+      <c r="H46" s="39"/>
     </row>
     <row r="47" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="36"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="49"/>
       <c r="D47" s="25" t="s">
         <v>75</v>
       </c>
@@ -2250,28 +2250,28 @@
       <c r="G47" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H47" s="45"/>
+      <c r="H47" s="40"/>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
     </row>
     <row r="49" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="35" t="s">
+      <c r="B49" s="52"/>
+      <c r="C49" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="26" t="s">
@@ -2284,7 +2284,7 @@
       <c r="G49" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H49" s="44" t="s">
+      <c r="H49" s="38" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2292,8 +2292,8 @@
       <c r="A50" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="37"/>
-      <c r="C50" s="36"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="49"/>
       <c r="D50" s="26" t="s">
         <v>167</v>
       </c>
@@ -2304,14 +2304,14 @@
       <c r="G50" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H50" s="45"/>
+      <c r="H50" s="40"/>
     </row>
     <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="37"/>
-      <c r="C51" s="36"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="49"/>
       <c r="D51" s="2" t="s">
         <v>81</v>
       </c>
@@ -2322,7 +2322,7 @@
       <c r="G51" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H51" s="50" t="s">
+      <c r="H51" s="41" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2330,8 +2330,8 @@
       <c r="A52" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="B52" s="37"/>
-      <c r="C52" s="36"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="49"/>
       <c r="D52" s="2" t="s">
         <v>83</v>
       </c>
@@ -2342,28 +2342,28 @@
       <c r="G52" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H52" s="51"/>
+      <c r="H52" s="42"/>
     </row>
     <row r="53" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="37"/>
-      <c r="C54" s="35" t="s">
+      <c r="B54" s="52"/>
+      <c r="C54" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -2376,7 +2376,7 @@
       <c r="G54" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H54" s="50" t="s">
+      <c r="H54" s="41" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2384,8 +2384,8 @@
       <c r="A55" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="B55" s="37"/>
-      <c r="C55" s="36"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="49"/>
       <c r="D55" s="2" t="s">
         <v>89</v>
       </c>
@@ -2396,14 +2396,14 @@
       <c r="G55" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H55" s="55"/>
+      <c r="H55" s="46"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B56" s="37"/>
-      <c r="C56" s="36"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="49"/>
       <c r="D56" s="2" t="s">
         <v>91</v>
       </c>
@@ -2414,28 +2414,28 @@
       <c r="G56" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H56" s="51"/>
+      <c r="H56" s="42"/>
     </row>
     <row r="57" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
     </row>
     <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="37"/>
-      <c r="C58" s="35" t="s">
+      <c r="B58" s="52"/>
+      <c r="C58" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D58" s="26" t="s">
@@ -2448,7 +2448,7 @@
       <c r="G58" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H58" s="39" t="s">
+      <c r="H58" s="53" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2456,8 +2456,8 @@
       <c r="A59" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B59" s="37"/>
-      <c r="C59" s="36"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="49"/>
       <c r="D59" s="2" t="s">
         <v>95</v>
       </c>
@@ -2468,14 +2468,14 @@
       <c r="G59" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H59" s="42"/>
+      <c r="H59" s="54"/>
     </row>
     <row r="60" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B60" s="37"/>
-      <c r="C60" s="36"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="49"/>
       <c r="D60" s="2" t="s">
         <v>97</v>
       </c>
@@ -2486,14 +2486,14 @@
       <c r="G60" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H60" s="42"/>
+      <c r="H60" s="54"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="B61" s="37"/>
-      <c r="C61" s="36"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="49"/>
       <c r="D61" s="26" t="s">
         <v>201</v>
       </c>
@@ -2504,40 +2504,40 @@
       <c r="G61" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H61" s="42"/>
+      <c r="H61" s="54"/>
     </row>
     <row r="62" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="41" t="s">
+      <c r="A62" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="B62" s="41"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="41"/>
-      <c r="H62" s="41"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55"/>
     </row>
     <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B63" s="38" t="s">
+      <c r="B63" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
     </row>
     <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="46" t="s">
+      <c r="A64" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="B64" s="47"/>
-      <c r="C64" s="35" t="s">
+      <c r="B64" s="51"/>
+      <c r="C64" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D64" s="27" t="s">
@@ -2550,14 +2550,14 @@
       <c r="G64" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H64" s="50" t="s">
+      <c r="H64" s="41" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="46"/>
-      <c r="B65" s="47"/>
-      <c r="C65" s="36"/>
+      <c r="A65" s="50"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="49"/>
       <c r="D65" s="7" t="s">
         <v>103</v>
       </c>
@@ -2568,12 +2568,12 @@
       <c r="G65" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H65" s="55"/>
+      <c r="H65" s="46"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="46"/>
-      <c r="B66" s="47"/>
-      <c r="C66" s="36"/>
+      <c r="A66" s="50"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="49"/>
       <c r="D66" s="27" t="s">
         <v>159</v>
       </c>
@@ -2584,28 +2584,28 @@
       <c r="G66" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H66" s="51"/>
+      <c r="H66" s="42"/>
     </row>
     <row r="67" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
     </row>
     <row r="68" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="B68" s="37"/>
-      <c r="C68" s="35" t="s">
+      <c r="B68" s="52"/>
+      <c r="C68" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D68" s="26" t="s">
@@ -2618,7 +2618,7 @@
       <c r="G68" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H68" s="44" t="s">
+      <c r="H68" s="38" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2626,8 +2626,8 @@
       <c r="A69" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="B69" s="37"/>
-      <c r="C69" s="36"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="49"/>
       <c r="D69" s="2" t="s">
         <v>108</v>
       </c>
@@ -2638,28 +2638,28 @@
       <c r="G69" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H69" s="45"/>
+      <c r="H69" s="40"/>
     </row>
     <row r="70" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B70" s="38" t="s">
+      <c r="B70" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
     </row>
     <row r="71" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="B71" s="37"/>
-      <c r="C71" s="35" t="s">
+      <c r="B71" s="52"/>
+      <c r="C71" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -2672,7 +2672,7 @@
       <c r="G71" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H71" s="39" t="s">
+      <c r="H71" s="53" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2680,8 +2680,8 @@
       <c r="A72" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="B72" s="37"/>
-      <c r="C72" s="36"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="49"/>
       <c r="D72" s="2" t="s">
         <v>115</v>
       </c>
@@ -2692,14 +2692,14 @@
       <c r="G72" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H72" s="39"/>
+      <c r="H72" s="53"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="B73" s="37"/>
-      <c r="C73" s="36"/>
+      <c r="B73" s="52"/>
+      <c r="C73" s="49"/>
       <c r="D73" s="2" t="s">
         <v>117</v>
       </c>
@@ -2710,14 +2710,14 @@
       <c r="G73" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H73" s="39"/>
+      <c r="H73" s="53"/>
     </row>
     <row r="74" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="B74" s="37"/>
-      <c r="C74" s="36"/>
+      <c r="B74" s="52"/>
+      <c r="C74" s="49"/>
       <c r="D74" s="2" t="s">
         <v>119</v>
       </c>
@@ -2728,28 +2728,28 @@
       <c r="G74" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H74" s="39"/>
+      <c r="H74" s="53"/>
     </row>
     <row r="75" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B75" s="38" t="s">
+      <c r="B75" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="C75" s="38"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="38"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="38"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B76" s="47"/>
-      <c r="C76" s="35" t="s">
+      <c r="B76" s="51"/>
+      <c r="C76" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D76" s="26" t="s">
@@ -2762,7 +2762,7 @@
       <c r="G76" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H76" s="44" t="s">
+      <c r="H76" s="38" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2770,8 +2770,8 @@
       <c r="A77" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="B77" s="47"/>
-      <c r="C77" s="36"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="49"/>
       <c r="D77" s="26" t="s">
         <v>156</v>
       </c>
@@ -2782,14 +2782,14 @@
       <c r="G77" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H77" s="49"/>
+      <c r="H77" s="39"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="B78" s="47"/>
-      <c r="C78" s="36"/>
+      <c r="B78" s="51"/>
+      <c r="C78" s="49"/>
       <c r="D78" s="2" t="s">
         <v>126</v>
       </c>
@@ -2800,14 +2800,14 @@
       <c r="G78" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H78" s="49"/>
+      <c r="H78" s="39"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="B79" s="47"/>
-      <c r="C79" s="36"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="49"/>
       <c r="D79" s="2" t="s">
         <v>128</v>
       </c>
@@ -2818,14 +2818,14 @@
       <c r="G79" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H79" s="45"/>
+      <c r="H79" s="40"/>
     </row>
     <row r="80" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="B80" s="47"/>
-      <c r="C80" s="36"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="49"/>
       <c r="D80" s="2" t="s">
         <v>130</v>
       </c>
@@ -2844,24 +2844,24 @@
       <c r="A81" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B81" s="38" t="s">
+      <c r="B81" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C81" s="38"/>
-      <c r="D81" s="38"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="38"/>
-      <c r="H81" s="38"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
     </row>
     <row r="82" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="B82" s="47" t="s">
+      <c r="B82" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="C82" s="35" t="s">
+      <c r="C82" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D82" s="26" t="s">
@@ -2874,7 +2874,7 @@
       <c r="G82" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H82" s="50" t="s">
+      <c r="H82" s="41" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2882,8 +2882,8 @@
       <c r="A83" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="B83" s="47"/>
-      <c r="C83" s="36"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="49"/>
       <c r="D83" s="2" t="s">
         <v>137</v>
       </c>
@@ -2892,28 +2892,28 @@
       <c r="G83" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H83" s="51"/>
+      <c r="H83" s="42"/>
     </row>
     <row r="84" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B84" s="38" t="s">
+      <c r="B84" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="C84" s="38"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38"/>
-      <c r="G84" s="38"/>
-      <c r="H84" s="38"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
     </row>
     <row r="85" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="B85" s="43"/>
-      <c r="C85" s="35" t="s">
+      <c r="B85" s="47"/>
+      <c r="C85" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D85" s="26" t="s">
@@ -2926,7 +2926,7 @@
       <c r="G85" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H85" s="44" t="s">
+      <c r="H85" s="38" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2934,8 +2934,8 @@
       <c r="A86" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="B86" s="43"/>
-      <c r="C86" s="36"/>
+      <c r="B86" s="47"/>
+      <c r="C86" s="49"/>
       <c r="D86" s="26" t="s">
         <v>155</v>
       </c>
@@ -2946,21 +2946,21 @@
       <c r="G86" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H86" s="45"/>
+      <c r="H86" s="40"/>
     </row>
     <row r="87" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="B87" s="38" t="s">
+      <c r="B87" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="C87" s="38"/>
-      <c r="D87" s="38"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="38"/>
-      <c r="G87" s="38"/>
-      <c r="H87" s="38"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="37"/>
     </row>
     <row r="88" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A88" s="31" t="s">
@@ -2988,15 +2988,15 @@
       <c r="A89" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B89" s="38" t="s">
+      <c r="B89" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="C89" s="38"/>
-      <c r="D89" s="38"/>
-      <c r="E89" s="38"/>
-      <c r="F89" s="38"/>
-      <c r="G89" s="38"/>
-      <c r="H89" s="38"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
     </row>
     <row r="90" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="31" t="s">
@@ -3021,11 +3021,11 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F92" s="48" t="s">
+      <c r="F92" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="G92" s="48"/>
-      <c r="H92" s="48"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
     </row>
     <row r="93" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F93" s="23" t="s">
@@ -3037,7 +3037,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="B94" s="56" t="s">
+      <c r="B94" s="35" t="s">
         <v>202</v>
       </c>
       <c r="E94" s="21"/>
@@ -3073,6 +3073,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C40:C47"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="H71:H74"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="C26:C34"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="B87:H87"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B81:H81"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="C68:C69"/>
     <mergeCell ref="F92:H92"/>
     <mergeCell ref="B89:H89"/>
     <mergeCell ref="H43:H47"/>
@@ -3089,62 +3145,6 @@
     <mergeCell ref="H68:H69"/>
     <mergeCell ref="H76:H79"/>
     <mergeCell ref="H82:H83"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="B87:H87"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B81:H81"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="H71:H74"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="C26:C34"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C40:C47"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="B40:B47"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B26:B34"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B18:B24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B94" r:id="rId1" xr:uid="{20CAD1C3-6D87-46FA-9061-9B6B6860129B}"/>
